--- a/mControl_produccion/formatos/caja 4.xlsx
+++ b/mControl_produccion/formatos/caja 4.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,37 +19,37 @@
     <t>Afiliación</t>
   </si>
   <si>
-    <t>7773224</t>
+    <t>7543520</t>
   </si>
   <si>
     <t>Fecha de Transacción</t>
   </si>
   <si>
-    <t>20/02/2020</t>
+    <t>06/01/2021</t>
   </si>
   <si>
     <t>Hora de Transacción</t>
   </si>
   <si>
-    <t>09:01:02</t>
+    <t>12:54:10</t>
   </si>
   <si>
     <t>Número de Control</t>
   </si>
   <si>
-    <t>2020022010190488328</t>
+    <t>202101068451254420280</t>
   </si>
   <si>
     <t>Código de Autorización</t>
   </si>
   <si>
-    <t>108302</t>
+    <t>155947</t>
   </si>
   <si>
     <t>Número de Tarjeta</t>
   </si>
   <si>
-    <t>627535******8328</t>
+    <t>534875******0280</t>
   </si>
   <si>
     <t>Tipo de Transacción</t>
@@ -67,13 +67,13 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>228</t>
+    <t>2333.95</t>
   </si>
   <si>
     <t>Referencia</t>
   </si>
   <si>
-    <t>382024028290</t>
+    <t>918142475430</t>
   </si>
   <si>
     <t>Referencia 1</t>
@@ -136,19 +136,19 @@
     <t>Banco Emisor</t>
   </si>
   <si>
-    <t xml:space="preserve">SODEXO    </t>
+    <t>DEBITO/CAM</t>
   </si>
   <si>
     <t>Marca de Tarjeta</t>
   </si>
   <si>
-    <t xml:space="preserve">PRIVADA   </t>
+    <t>CREDITO/PL</t>
   </si>
   <si>
     <t>Tipo de Tarjeta</t>
   </si>
   <si>
-    <t xml:space="preserve">DEBITO    </t>
+    <t xml:space="preserve">CREDITO   </t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:J7"/>
     </sheetView>
   </sheetViews>
